--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/15/seed2/result_data_RandomForest.xlsx
@@ -477,7 +477,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.7833</v>
+        <v>-12.628</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.0303</v>
+        <v>-13.3476</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.91110000000001</v>
+        <v>-12.19920000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.101900000000002</v>
+        <v>-7.851800000000003</v>
       </c>
     </row>
     <row r="23">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.3566</v>
+        <v>-12.1814</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.416500000000002</v>
+        <v>-7.451199999999996</v>
       </c>
     </row>
     <row r="25">
@@ -785,7 +785,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.20480000000001</v>
+        <v>-11.22930000000001</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.56700000000001</v>
+        <v>-12.52250000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.159499999999998</v>
+        <v>-7.984499999999994</v>
       </c>
     </row>
     <row r="29">
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.21290000000001</v>
+        <v>-11.02660000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.324599999999998</v>
+        <v>-7.5532</v>
       </c>
     </row>
     <row r="37">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.570099999999996</v>
+        <v>-7.289599999999997</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.828699999999993</v>
+        <v>-7.539499999999993</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-7.843399999999995</v>
+        <v>-7.6328</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.113900000000005</v>
+        <v>-8.095900000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1177,10 +1177,10 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-13.76519999999999</v>
+        <v>-14.2231</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.007999999999999</v>
+        <v>-8.055799999999998</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.898999999999996</v>
+        <v>-7.899699999999999</v>
       </c>
     </row>
     <row r="55">
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.91859999999999</v>
+        <v>-13.8193</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.7167</v>
+        <v>-12.6794</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.6211</v>
+        <v>-10.73589999999999</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.198299999999998</v>
+        <v>-6.843799999999998</v>
       </c>
     </row>
     <row r="71">
@@ -1541,7 +1541,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-10.99310000000001</v>
+        <v>-11.43020000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.66489999999999</v>
+        <v>-13.9661</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.073699999999993</v>
+        <v>-7.987299999999994</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.324499999999995</v>
+        <v>-8.403599999999992</v>
       </c>
     </row>
     <row r="88">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.0801</v>
+        <v>-8.085099999999995</v>
       </c>
     </row>
     <row r="90">
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.66320000000001</v>
+        <v>-12.70610000000001</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.3549</v>
+        <v>-10.31339999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.181100000000002</v>
+        <v>-8.128700000000002</v>
       </c>
     </row>
     <row r="102">
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-13.10519999999999</v>
+        <v>-13.23839999999999</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
